--- a/DoMoreReferenece.xlsx
+++ b/DoMoreReferenece.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmarshall\source\BlueMachinePLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F43897-8D9C-45B5-881B-D0EB6E18C542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED989926-A97F-4008-8DE4-6B24EF93C1D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{F6E762D9-0417-433A-93CB-4105F3298C23}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="404">
   <si>
     <t>C</t>
   </si>
@@ -922,9 +922,6 @@
     <t>No Interupt Stroke Mode Constant</t>
   </si>
   <si>
-    <t>Single Stack Mode Constant</t>
-  </si>
-  <si>
     <t>Latch Start OS</t>
   </si>
   <si>
@@ -1186,15 +1183,6 @@
     <t>C7 (C55)</t>
   </si>
   <si>
-    <t>21 (C26)</t>
-  </si>
-  <si>
-    <t>22 (C27)</t>
-  </si>
-  <si>
-    <t>23 (C28)</t>
-  </si>
-  <si>
     <t>C8 (100)</t>
   </si>
   <si>
@@ -1210,9 +1198,6 @@
     <t>40-49</t>
   </si>
   <si>
-    <t>C24 (C29)</t>
-  </si>
-  <si>
     <t>T20 (T2)</t>
   </si>
   <si>
@@ -1247,6 +1232,24 @@
   </si>
   <si>
     <t>0-225</t>
+  </si>
+  <si>
+    <t>20 (C26)</t>
+  </si>
+  <si>
+    <t>21 (C27)</t>
+  </si>
+  <si>
+    <t>21 (C28)</t>
+  </si>
+  <si>
+    <t>C22 (C29)</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>Latch Cam Start Cycle</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1302,6 +1305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1384,6 +1393,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3467,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C5E72-732C-44E8-8BF0-C3EEAAC9B46D}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,29 +3504,27 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>294</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>293</v>
@@ -3520,26 +3532,26 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3563,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>290</v>
@@ -3559,7 +3571,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>291</v>
@@ -3567,7 +3579,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>292</v>
@@ -3575,50 +3587,50 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,11 +3655,11 @@
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>295</v>
+      <c r="B23" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,23 +3685,23 @@
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>261</v>
@@ -3697,15 +3709,15 @@
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -3713,7 +3725,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -3729,10 +3741,10 @@
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D37" s="5">
         <v>6</v>
@@ -3740,10 +3752,10 @@
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
@@ -3751,10 +3763,10 @@
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -3762,10 +3774,10 @@
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="5">
         <v>1.5</v>
@@ -3773,10 +3785,10 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
@@ -3784,10 +3796,10 @@
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -3821,10 +3833,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D46" s="5">
         <v>0.5</v>
@@ -3840,10 +3852,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="5">
         <v>6.5000000000000002E-2</v>
@@ -3851,10 +3863,10 @@
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
@@ -3870,10 +3882,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D51" s="5">
         <v>9</v>
@@ -3881,10 +3893,10 @@
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -3907,17 +3919,17 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3929,19 +3941,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3953,252 +3965,260 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="A69" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>333</v>
-      </c>
+      <c r="A73" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="5" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="5" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>270</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4207,7 +4227,7 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4230,15 +4250,15 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -4255,10 +4275,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D5">
         <f>SUM(C15:F15)</f>
@@ -4291,21 +4311,21 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
         <v>346</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>347</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>348</v>
-      </c>
-      <c r="F11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -4313,21 +4333,21 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(C25:E25)</f>
@@ -4341,24 +4361,24 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C15" s="8">
         <f>SUM(C27:E27)</f>
@@ -4379,7 +4399,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17">
         <f>SUM(C29:E29)</f>
@@ -4397,7 +4417,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C19">
         <f>SUM(C31:E31)</f>
@@ -4407,7 +4427,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4415,13 +4435,13 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -4429,18 +4449,18 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="8">
         <v>8</v>
@@ -4454,21 +4474,21 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -4490,7 +4510,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4512,7 +4532,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4544,26 +4564,26 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/DoMoreReferenece.xlsx
+++ b/DoMoreReferenece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmarshall\source\BlueMachinePLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED989926-A97F-4008-8DE4-6B24EF93C1D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4D6D9-43CB-4B8B-8B46-E5393C1C4B89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{F6E762D9-0417-433A-93CB-4105F3298C23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{F6E762D9-0417-433A-93CB-4105F3298C23}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="2" r:id="rId1"/>
@@ -3483,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C5E72-732C-44E8-8BF0-C3EEAAC9B46D}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE4706-9A77-4125-8F2E-49A77C7DE771}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
